--- a/biology/Histoire de la zoologie et de la botanique/Rosiériste/Rosiériste.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Rosiériste/Rosiériste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rosi%C3%A9riste</t>
+          <t>Rosiériste</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rosiéristes sont des pépiniéristes spécialistes de la sélection et de l'amélioration des rosiers cultivés.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rosi%C3%A9riste</t>
+          <t>Rosiériste</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Spécificité du rosiériste</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rosiériste n'est pas seulement un jardinier ou un pépiniériste, c'est un obtenteur et quelquefois seulement un obtenteur qui laisse à d'autres le soin de la multiplication et de la commercialisation. Il arrive que certains pépiniéristes spécialisés dans la vente de rosiers se fassent appeler « rosiériste », mais il s'agit d'un abus de langage car seuls les obtenteurs de nouvelles variétés sont de véritables rosiéristes. 
 Certaines variétés de rosiers cultivés correspondent aux espèces naturelles et sont appelés rosiers sauvages ou botaniques. Les rosiers améliorés sont le résultat de croisements parfois complexes entre différents types de rosiers préexistants, qui sont multipliés le plus souvent par voie végétative (boutures ou greffes).
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rosi%C3%A9riste</t>
+          <t>Rosiériste</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Premiers rosiéristes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les premiers pépiniéristes rosiéristes s'installent autour de Paris au XVIIIe siècle et près de Lyon au XIXe siècle.
 Ce sont souvent des familles de jardiniers qui se sont illustrées pendant plusieurs générations depuis le début de l'expansion de la culture des roses en Europe au XVIIe siècle. On peut citer par exemple les familles Ducher, Guillot, Laperrière ou Meilland.
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rosi%C3%A9riste</t>
+          <t>Rosiériste</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,11 +605,48 @@
           <t>Liste de rosiéristes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste ci-dessous indique pour chaque rosiériste le nombre de variétés répertoriées[1].
-Obtenteurs du XIXe siècle
-Par nombre d'obtentions :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste ci-dessous indique pour chaque rosiériste le nombre de variétés répertoriées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rosiériste</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rosi%C3%A9riste</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste de rosiéristes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Obtenteurs du XIXe siècle</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par nombre d'obtentions :
 Jean-Pierre Vibert (1777-1866), Angers, France - 545 variétés répertoriées (à la suite du rachat de la pépinière de Descemet)
 Jean Laffay (1795 - 1878), Bellevue-Meudon, France - 326. Il créa les premiers hybrides remontants vers 1840.
 Jean-Baptiste Guillot et fils (1803-1882), Lyon, France : 87 + 100 + 83
@@ -610,7 +663,7 @@
 Joseph Schwartz (1846-1885), Lyon, France - 59 + André 66
 Marie-Louise Schwartz, née Trevoz (1852-1938) 52
 Henri Pradel et Giraud Pradel, père et fils - 122
-Jean Liabaud, (1814-1904) rosiériste lyonnais[2] France - 102
+Jean Liabaud, (1814-1904) rosiériste lyonnais France - 102
 Julien-Alexandre Hardy, Paris, France (23 mai 1787 - 15 septembre 1876), chef jardinier du jardin du Luxembourg de 1817 à 1859 a contribué également au développement des premiers hybrides remontants - 95
 Jean Alexandre Bernaix (1831 - 1905), Villeurbanne, France - 57 + son fils Pierre Bernaix (1873-1935) - 37
 Dorus Theus Poulsen (1851 - 1925) et fils, Danemark - 84
@@ -636,12 +689,12 @@
 Henri Antoine Jacques (1782-1866), Neuilly, France. Jardinier en chef du duc d'Orléans (le futur roi Louis-Philippe), qui sema les graines envoyées par le botaniste Bréon et baptisa les rosiers Bourbon. Il créa 26 variétés dont 'Félicité et Perpétue', encore célèbre.
 Jean-Baptiste Corbœuf, Orléans, France  - 25
 Jean Desprez, Yèbles, France - 25 (dont 17 de 1830 à 1854)
-Victor Étienne Gautreau (1815-1887), Brie-Comte-Robert, France - 23 (de 1863 à 1879) + 1 de ses fils Victor Henri et Charles Auguste (en 1888)[3]
-Ketten Frères[4], (1867 - 1949) Luxembourg  - 20
+Victor Étienne Gautreau (1815-1887), Brie-Comte-Robert, France - 23 (de 1863 à 1879) + 1 de ses fils Victor Henri et Charles Auguste (en 1888)
+Ketten Frères, (1867 - 1949) Luxembourg  - 20
 Scipion Cochet (1833 - 1896), Suisnes, France - 19 (de 1852 à 1886) + 1 avec son frère Philémon (en 1855)
 Hippolyte Jamain, Paris, France - 18
 Roeser, Crécy-en-Brie, France - 15 (de 1829 à 1848)
-Charles-Denis Souchet, Bagnolet, France, obtenteur[5] notamment de 'Beauté de Versailles' et son fils Pierre-Denis
+Charles-Denis Souchet, Bagnolet, France, obtenteur notamment de 'Beauté de Versailles' et son fils Pierre-Denis
 Pierre-Victor Quétier, Meaux, France - 14 (de 1839 à 1861)
 Hugues Vilin, Grisy-Suisnes, France - 2 (en 1868 et 1872) + 12 de Rose Vilin (de 1887 à 1903)
 Henri Ledéchaux, Villecresnes, France - 9 (de 1855 à 1875) + 5 de sa veuve (de 1878 à 1895)
@@ -663,7 +716,43 @@
 Camille Bernardin, Coulommiers puis Brie-Comte-Robert, France - 1 (en 1866)
 Jémeau, Grisy-Suisnes, France - 1 (en 1869)
 Jules Motteau, Mandres, France - 1 (en 1878)
-Obtenteurs du XXe siècle (plus en activité)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rosiériste</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rosi%C3%A9riste</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste de rosiéristes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Obtenteurs du XXe siècle (plus en activité)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Robert Harkness, (1851-1920), Angleterre - 372
 Gilbert Nabonnand (1828-1903), Golfe-Juan, France - 209 + Paul - 40
 Hugh Dickson - 72 + Alexander Dickson II - 228
@@ -678,7 +767,7 @@
 George Schoener (1864-1941) Allemagne/États-Unis -  73
 Albert Barbier et fils, (1845-1931), France - 67 (avec son fils René Barbier)
 Francis Dubreuil, France - 65
-César Chambard (1866-1940), France - + 60[6]
+César Chambard (1866-1940), France - + 60
 Seizo Suzuki (1913-2000), rosiériste japonais et directeur de l'Institut de recherche du Japon sur la rose - 61
 Hermann Kiese (1865-1923), rosiériste allemand - plus de 60
 Révérend Pemberton (1852-1926), Angleterre - 50
@@ -697,7 +786,43 @@
 Ernest Levavasseur, Orléans, France : 10
 Veuve Vilin (et Gaston Vilin), Grisy-Suisnes, France - 8 (de 1904 à 1908)
 Félix Boulanger, Grégy, France - 3 (de 1910 à 1912)
-Obtenteurs contemporains
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rosiériste</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rosi%C3%A9riste</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste de rosiéristes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Obtenteurs contemporains</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Allemagne
 Wilhelm Kordes (1891-1976), Allemagne - 610 + 138
 Reinhard Noack, Allemagne - 36
